--- a/Data_file/import_product_KYLD1.xlsx
+++ b/Data_file/import_product_KYLD1.xlsx
@@ -16,12 +16,15 @@
     <sheet name="product" sheetId="1" r:id="rId2"/>
     <sheet name="Service" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$308</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5605" uniqueCount="2439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="2546">
   <si>
     <t>categ_id</t>
   </si>
@@ -5859,9 +5862,6 @@
     <t>ลวดชุปกัลวาไนช์ ขนาด 0.9 มม. หรือ เบอร์ 20</t>
   </si>
   <si>
-    <t>กก.</t>
-  </si>
-  <si>
     <t>M0000695</t>
   </si>
   <si>
@@ -6378,9 +6378,6 @@
     <t>ปลั๊กไฟเส้น 220V IC 14 mm R220V-IC2835-14mm.</t>
   </si>
   <si>
-    <t>ชุด</t>
-  </si>
-  <si>
     <t>M0000782</t>
   </si>
   <si>
@@ -6492,9 +6489,6 @@
     <t>หม้อแปลงไฟฟ้าแรงสูง - Low Voltage Lightning Arresters 2.5 KA. 480 V.</t>
   </si>
   <si>
-    <t>ตัว</t>
-  </si>
-  <si>
     <t>M0000799</t>
   </si>
   <si>
@@ -6525,9 +6519,6 @@
     <t>แท่งกราวด์ทองแดง2.40เมตร*เต็ม5/8พร้อมแค้มหัวใจ</t>
   </si>
   <si>
-    <t>แท่ง</t>
-  </si>
-  <si>
     <t>M0000804</t>
   </si>
   <si>
@@ -6540,9 +6531,6 @@
     <t>สกรูปลายสว่านหัวเตเปอร์ FSD#8-18*1"(2000)</t>
   </si>
   <si>
-    <t>ร้อย</t>
-  </si>
-  <si>
     <t>M0000806</t>
   </si>
   <si>
@@ -6573,18 +6561,12 @@
     <t>แคล้มก้ามปู สีขาว 1/2" SCG (400)</t>
   </si>
   <si>
-    <t>แพ็ค50</t>
-  </si>
-  <si>
     <t>M0000811</t>
   </si>
   <si>
     <t>ลวดมีเนียมกลม 2.6mm.1Kg</t>
   </si>
   <si>
-    <t>กก</t>
-  </si>
-  <si>
     <t>M0000812</t>
   </si>
   <si>
@@ -6597,9 +6579,6 @@
     <t>กล่องพักสาย 4*4 สีขาวSCG (12)</t>
   </si>
   <si>
-    <t>อัน</t>
-  </si>
-  <si>
     <t>M0000814</t>
   </si>
   <si>
@@ -6666,18 +6645,12 @@
     <t>หางปลากลมเปลือย ทรงยุโรป CL50-8</t>
   </si>
   <si>
-    <t>แพ็ค2</t>
-  </si>
-  <si>
     <t>M0000825</t>
   </si>
   <si>
     <t>แหวนอีแปะสแตนเลส3/8</t>
   </si>
   <si>
-    <t>แพ็ค10</t>
-  </si>
-  <si>
     <t>M0000826</t>
   </si>
   <si>
@@ -6720,9 +6693,6 @@
     <t>น็อตมิลชุบขาว M8*40</t>
   </si>
   <si>
-    <t>แพ็ค5</t>
-  </si>
-  <si>
     <t>M0000833</t>
   </si>
   <si>
@@ -6741,9 +6711,6 @@
     <t>SENTOSHI ลูกแลค (60ลูก/ลัง)</t>
   </si>
   <si>
-    <t>ลูก</t>
-  </si>
-  <si>
     <t>M0000836</t>
   </si>
   <si>
@@ -6756,9 +6723,6 @@
     <t>KJL ตู้ไซด์กันฝน รุ่นKBSW เบอร์ 3 ขนาด 40*57*20</t>
   </si>
   <si>
-    <t>ใบ</t>
-  </si>
-  <si>
     <t>M0000838</t>
   </si>
   <si>
@@ -7230,9 +7194,6 @@
     <t>ค่าแบบ - วิศวกร รับรองแบบ - ค่าดำเนินการ</t>
   </si>
   <si>
-    <t>งาน</t>
-  </si>
-  <si>
     <t>All / 1-S15  / จ้างเหมา งานภูมิทัศน์ และวัสดุตกแต่ง</t>
   </si>
   <si>
@@ -7339,13 +7300,376 @@
   </si>
   <si>
     <t>MAKIT A เครื่องเจีย 4" 9553BX</t>
+  </si>
+  <si>
+    <t>M0000901</t>
+  </si>
+  <si>
+    <t>M0000902</t>
+  </si>
+  <si>
+    <t>M0000903</t>
+  </si>
+  <si>
+    <t>M0000904</t>
+  </si>
+  <si>
+    <t>M0000905</t>
+  </si>
+  <si>
+    <t>M0000906</t>
+  </si>
+  <si>
+    <t>M0000907</t>
+  </si>
+  <si>
+    <t>M0000908</t>
+  </si>
+  <si>
+    <t>M0000909</t>
+  </si>
+  <si>
+    <t>M0000910</t>
+  </si>
+  <si>
+    <t>M0000911</t>
+  </si>
+  <si>
+    <t>M0000912</t>
+  </si>
+  <si>
+    <t>M0000913</t>
+  </si>
+  <si>
+    <t>M0000914</t>
+  </si>
+  <si>
+    <t>M0000915</t>
+  </si>
+  <si>
+    <t>M0000916</t>
+  </si>
+  <si>
+    <t>M0000917</t>
+  </si>
+  <si>
+    <t>M0000918</t>
+  </si>
+  <si>
+    <t>M0000919</t>
+  </si>
+  <si>
+    <t>M0000920</t>
+  </si>
+  <si>
+    <t>M0000921</t>
+  </si>
+  <si>
+    <t>M0000922</t>
+  </si>
+  <si>
+    <t>All / 2-M24  / ค่าของ งานตกแต่งภายใน</t>
+  </si>
+  <si>
+    <t>M0000923</t>
+  </si>
+  <si>
+    <t>M0000924</t>
+  </si>
+  <si>
+    <t>M0000925</t>
+  </si>
+  <si>
+    <t>M0000926</t>
+  </si>
+  <si>
+    <t>M0000927</t>
+  </si>
+  <si>
+    <t>M0000928</t>
+  </si>
+  <si>
+    <t>M0000929</t>
+  </si>
+  <si>
+    <t>All / 2-M45  / ค่าของ งานระบบประปา-วัสดุสิ้นเปลือง</t>
+  </si>
+  <si>
+    <t>M0000930</t>
+  </si>
+  <si>
+    <t>M0000931</t>
+  </si>
+  <si>
+    <t>M0000932</t>
+  </si>
+  <si>
+    <t>M0000933</t>
+  </si>
+  <si>
+    <t>M0000934</t>
+  </si>
+  <si>
+    <t>M0000935</t>
+  </si>
+  <si>
+    <t>M0000936</t>
+  </si>
+  <si>
+    <t>All / 2-M03  / ค่าของ งานเสาเข็ม</t>
+  </si>
+  <si>
+    <t>M0000937</t>
+  </si>
+  <si>
+    <t>M0000938</t>
+  </si>
+  <si>
+    <t>M0000939</t>
+  </si>
+  <si>
+    <t>M0000940</t>
+  </si>
+  <si>
+    <t>M0000941</t>
+  </si>
+  <si>
+    <t>M0000942</t>
+  </si>
+  <si>
+    <t>M0000943</t>
+  </si>
+  <si>
+    <t>M0000944</t>
+  </si>
+  <si>
+    <t>L0000104</t>
+  </si>
+  <si>
+    <t>L0000105</t>
+  </si>
+  <si>
+    <t>L0000106</t>
+  </si>
+  <si>
+    <t>L0000107</t>
+  </si>
+  <si>
+    <t>L0000108</t>
+  </si>
+  <si>
+    <t>L0000109</t>
+  </si>
+  <si>
+    <t>All / 2-L03  / ค่าแรง งานเสาเข็ม</t>
+  </si>
+  <si>
+    <t>L0000110</t>
+  </si>
+  <si>
+    <t>L0000111</t>
+  </si>
+  <si>
+    <t>All / 2-L24  / ค่าแรง งานตกแต่งภายใน</t>
+  </si>
+  <si>
+    <t>L0000112</t>
+  </si>
+  <si>
+    <t>L0000113</t>
+  </si>
+  <si>
+    <t>L0000114</t>
+  </si>
+  <si>
+    <t>L0000115</t>
+  </si>
+  <si>
+    <t>L0000116</t>
+  </si>
+  <si>
+    <t>ไวร์เมช ขนาด 4 mm.@0.20*0.20m. หน้ากว้าง 2.5 ม.* ยาว 50 ม.</t>
+  </si>
+  <si>
+    <t>เหล็กแฟลตบาร์ ขนาด 3 นิ้ว หนา 6 มม.</t>
+  </si>
+  <si>
+    <t>เหล็กฉาก ขนาด 3 นิ้ว หนา 6 มม.</t>
+  </si>
+  <si>
+    <t>ปูนต้นสน ปูนปิดเพลท</t>
+  </si>
+  <si>
+    <t>ปูนต้นสน นอนท์ชริ้ง</t>
+  </si>
+  <si>
+    <t>ปูนฉาบสำเร็จรูป</t>
+  </si>
+  <si>
+    <t>พุกเหล็ก ขนาด1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>ใบตัดเหล็ก 14 นิ้ว</t>
+  </si>
+  <si>
+    <t>ใบตัดเหล็ก 4 นิ้ว</t>
+  </si>
+  <si>
+    <t>ใบตัดปูน 9 นิ้ว</t>
+  </si>
+  <si>
+    <t>ใบตัดปูน 4 นิ้ว</t>
+  </si>
+  <si>
+    <t>ใบขัดปูน 4 นิ้ว</t>
+  </si>
+  <si>
+    <t>ดอกสว่าน แบบเจาะปูน 16 มม.</t>
+  </si>
+  <si>
+    <t>ดอกสว่าน แบบเจาะปูน 12 มม.</t>
+  </si>
+  <si>
+    <t>แผ่นซิมเพลท 60*60 มม. หนา 5 มม.</t>
+  </si>
+  <si>
+    <t>แผ่นซิมเพลท 60*60 มม. หนา 10 มม.</t>
+  </si>
+  <si>
+    <t>VPROOM 226 CEMENT FLEX (Set) / 23kg. วีพรูฟ 226 ซีเมนต์กันซึมชนิดยืดหยุ่น 2 ส่วนผสม (ชุด) 23 กก.</t>
+  </si>
+  <si>
+    <t>VPROOM 221 SUPER CEMENT FLEX - UV (Set) / 30kg. วีพรูฟ 221 ซีเมนต์กันซึมชนิดยืดหยุ่นสูง 2 ส่วนผสม (ชุด) 30 กก.</t>
+  </si>
+  <si>
+    <t>ตาข่ายไฟเบอร์ ขนาด 100 *100 เมตร</t>
+  </si>
+  <si>
+    <t>กันซึม - Sika Igolflex - 130 20 กก.</t>
+  </si>
+  <si>
+    <t>แผ่นเมมเบรน (Waterproof Membrane) ขนาด 20 ซม.</t>
+  </si>
+  <si>
+    <t>ปูนกาว จิงโจ้ สีม่วง 50 กก.</t>
+  </si>
+  <si>
+    <t>สีกันสนิม 18 ลิตร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เหล็กกล่องอะเส 4*2 นิ้ว หนา 3.2 มม.  ยาว 6 ม./เส้น </t>
+  </si>
+  <si>
+    <t>แฟลตชิ่ง</t>
+  </si>
+  <si>
+    <t>พุกเหล็ก ขนาด 3/8 นิ้ว</t>
+  </si>
+  <si>
+    <t>สีกันสนิมกัลวาไนซ์ บรอนซ์ 3.5 กก.</t>
+  </si>
+  <si>
+    <t>สรูเกลียวปล่อย 1 1/2 หัว P</t>
+  </si>
+  <si>
+    <t>ท่อเฟลก์ ขนาด 5 นิ้ว</t>
+  </si>
+  <si>
+    <t>กาวทาท่อตรา SCG 1000 กรัม</t>
+  </si>
+  <si>
+    <t>วัสดุสิ้นเปลือง Support &amp; Acesseries</t>
+  </si>
+  <si>
+    <t>เบ็ดเตล็ด</t>
+  </si>
+  <si>
+    <t>อ่างล้างจาน D147C-23 รหัส ACCSK00118</t>
+  </si>
+  <si>
+    <t>ก๊อกน้ำ NEO-Z ST03 รหัส ACCTP00030</t>
+  </si>
+  <si>
+    <t>กระเบื้อง Duragres 60x120 cm. Saint Learent</t>
+  </si>
+  <si>
+    <t>มินิบอลวาวล์ 1/2 นิ้ว</t>
+  </si>
+  <si>
+    <t>เสาเข็มเจาะ ขนาด Dia.25 ซม. ยาว 3.00 ม.</t>
+  </si>
+  <si>
+    <t>วัสดุงานตัดหัวเข็ม</t>
+  </si>
+  <si>
+    <t>ดอกเจาะปูน 16 นิ้ว</t>
+  </si>
+  <si>
+    <t>เสาเข็มตอก ขนาด 22*22 ยาว 3-6 เมตร</t>
+  </si>
+  <si>
+    <t>ทรายหยาบ</t>
+  </si>
+  <si>
+    <t>หิน 3/4</t>
+  </si>
+  <si>
+    <t>แผ่นเพลทเหล็ก 4*4 นิ้ว หนา 6 มม.</t>
+  </si>
+  <si>
+    <t>สายน้ำถักดี ขนาด 1/2 ยาว 20 ซม.</t>
+  </si>
+  <si>
+    <t>งานปูนทรายปรับระดับ 5 ซม.</t>
+  </si>
+  <si>
+    <t>งานปรับระดับพื้นด้วยปูน Self-Leveling 3 มม.</t>
+  </si>
+  <si>
+    <t>งานปรับระดับเติมดิน</t>
+  </si>
+  <si>
+    <t>ค่าเช่าแบบเหล็ก เหล็กดึงดัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ค่าแรงติดตั้ง เข้าแบบเหล็กพื้น Topping 6*2 นิ้ว </t>
+  </si>
+  <si>
+    <t>ค่าแรงเท Topping 5 ซม. ชั้น 1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ค่าตอกเสาเข็ม </t>
+  </si>
+  <si>
+    <t>ค่าติดตั้งวัสดุสิ้นเปลือง Support &amp; Acesseries</t>
+  </si>
+  <si>
+    <t>งานจ้างเหมา เคาน์เตอร์ครัว รวมพื้น</t>
+  </si>
+  <si>
+    <t>ค่าแรง เจาะเสียบเหล็ก เทพื้น *ยึดเข้ากับโครงสร้างบ้าน 1.50 * 0.60 เมตร</t>
+  </si>
+  <si>
+    <t>ค่าแรง งานก่อฉาบผนัง + เท Top เคาน์เตอร์</t>
+  </si>
+  <si>
+    <t>ค่าแรง ปูกระเบื้อง Top ครัวไทย</t>
+  </si>
+  <si>
+    <t>ค่าแรง ติดตั้งชุดอ่างล้างจานและเดินท่อน้ำดี - น้ำทิ้ง</t>
+  </si>
+  <si>
+    <t>แพ็ค</t>
+  </si>
+  <si>
+    <t>pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7362,8 +7686,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7380,6 +7710,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7542,10 +7878,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7574,8 +7911,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8704,10 +9045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X250"/>
+  <dimension ref="A1:X308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8810,6 +9151,12 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8824,6 +9171,12 @@
       <c r="F3" t="s">
         <v>1914</v>
       </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8838,6 +9191,12 @@
       <c r="F4" t="s">
         <v>473</v>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8852,6 +9211,12 @@
       <c r="F5" t="s">
         <v>1920</v>
       </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8866,6 +9231,12 @@
       <c r="F6" t="s">
         <v>1923</v>
       </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8880,6 +9251,12 @@
       <c r="F7" t="s">
         <v>1920</v>
       </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -8894,6 +9271,12 @@
       <c r="F8" t="s">
         <v>1928</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8908,6 +9291,12 @@
       <c r="F9" t="s">
         <v>1932</v>
       </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8922,6 +9311,12 @@
       <c r="F10" t="s">
         <v>1936</v>
       </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8936,6 +9331,12 @@
       <c r="F11" t="s">
         <v>473</v>
       </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8950,6 +9351,12 @@
       <c r="F12" t="s">
         <v>1936</v>
       </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8964,6 +9371,12 @@
       <c r="F13" t="s">
         <v>179</v>
       </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8976,7 +9389,13 @@
         <v>1944</v>
       </c>
       <c r="F14" t="s">
-        <v>1945</v>
+        <v>1914</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" s="24">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -8984,13 +9403,19 @@
         <v>1933</v>
       </c>
       <c r="B15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D15" t="s">
         <v>1946</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1947</v>
       </c>
       <c r="F15" t="s">
         <v>473</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" s="24">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -8998,3292 +9423,5968 @@
         <v>1933</v>
       </c>
       <c r="B16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D16" t="s">
         <v>1948</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1949</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1933</v>
       </c>
       <c r="B17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D17" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1933</v>
       </c>
       <c r="B18" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D18" t="s">
         <v>1951</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1952</v>
       </c>
       <c r="F18" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1933</v>
       </c>
       <c r="B19" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D19" t="s">
         <v>1953</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1954</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1933</v>
       </c>
       <c r="B20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D20" t="s">
         <v>1955</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1956</v>
       </c>
       <c r="F20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1933</v>
       </c>
       <c r="B21" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D21" t="s">
         <v>1957</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1958</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1933</v>
       </c>
       <c r="B22" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D22" t="s">
         <v>1959</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1960</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1933</v>
       </c>
       <c r="B23" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D23" t="s">
         <v>1961</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1962</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1933</v>
       </c>
       <c r="B24" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D24" t="s">
         <v>1963</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1964</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1933</v>
       </c>
       <c r="B25" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D25" t="s">
         <v>1965</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1966</v>
       </c>
       <c r="F25" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1933</v>
       </c>
       <c r="B26" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D26" t="s">
         <v>1967</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1968</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B27" t="s">
         <v>1969</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>1970</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1971</v>
       </c>
       <c r="F27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D28" t="s">
         <v>1972</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1973</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B29" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D29" t="s">
         <v>1974</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1975</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B30" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D30" t="s">
         <v>1976</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1977</v>
       </c>
       <c r="F30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B31" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D31" t="s">
         <v>1978</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1979</v>
       </c>
       <c r="F31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B32" t="s">
         <v>1980</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>1981</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1982</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B33" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D33" t="s">
         <v>1983</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1984</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B34" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D34" t="s">
         <v>1985</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1986</v>
       </c>
       <c r="F34" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B35" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D35" t="s">
         <v>1987</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1988</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B36" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D36" t="s">
         <v>1989</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1990</v>
       </c>
       <c r="F36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B37" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D37" t="s">
         <v>1991</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1992</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B38" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D38" t="s">
         <v>1993</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1994</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B39" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D39" t="s">
         <v>1995</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1996</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B40" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D40" t="s">
         <v>1997</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1998</v>
       </c>
       <c r="F40" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B41" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D41" t="s">
         <v>1999</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2000</v>
       </c>
       <c r="F41" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B42" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D42" t="s">
         <v>2001</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2002</v>
       </c>
       <c r="F42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B43" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D43" t="s">
         <v>2003</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2004</v>
       </c>
       <c r="F43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B44" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D44" t="s">
         <v>2005</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2006</v>
       </c>
       <c r="F44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D45" t="s">
         <v>2007</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2008</v>
       </c>
       <c r="F45" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B46" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D46" t="s">
         <v>2009</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2010</v>
       </c>
       <c r="F46" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B47" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D47" t="s">
         <v>2011</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2012</v>
       </c>
       <c r="F47" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B48" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D48" t="s">
         <v>2013</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2014</v>
       </c>
       <c r="F48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B49" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D49" t="s">
         <v>2015</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2016</v>
       </c>
       <c r="F49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="s">
         <v>2017</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2018</v>
       </c>
       <c r="F50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B51" t="s">
         <v>2019</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>2020</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2021</v>
       </c>
       <c r="F51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B52" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D52" t="s">
         <v>2022</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2023</v>
       </c>
       <c r="F52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B53" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D53" t="s">
         <v>2024</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2025</v>
       </c>
       <c r="F53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D54" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B55" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D55" t="s">
         <v>2027</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2028</v>
       </c>
       <c r="F55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B56" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D56" t="s">
         <v>2029</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2030</v>
       </c>
       <c r="F56" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B57" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D57" t="s">
         <v>2031</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2032</v>
       </c>
       <c r="F57" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B58" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D58" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F58" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W58" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B59" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D59" t="s">
         <v>2034</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2035</v>
       </c>
       <c r="F59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B60" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D60" t="s">
         <v>2036</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2037</v>
       </c>
       <c r="F60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B61" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D61" t="s">
         <v>2038</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2039</v>
       </c>
       <c r="F61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B62" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D62" t="s">
         <v>2040</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2041</v>
       </c>
       <c r="F62" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B63" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D63" t="s">
         <v>2042</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2043</v>
       </c>
       <c r="F63" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B64" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D64" t="s">
         <v>2044</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2045</v>
       </c>
       <c r="F64" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="W64" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D65" t="s">
         <v>2046</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2047</v>
       </c>
       <c r="F65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B66" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D66" t="s">
         <v>2048</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2049</v>
       </c>
       <c r="F66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B67" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D67" t="s">
         <v>2050</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2051</v>
       </c>
       <c r="F67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>24</v>
       </c>
       <c r="B68" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D68" t="s">
         <v>2052</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2053</v>
       </c>
       <c r="F68" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>24</v>
       </c>
       <c r="B69" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D69" t="s">
         <v>2054</v>
-      </c>
-      <c r="D69" t="s">
-        <v>2055</v>
       </c>
       <c r="F69" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="W69" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D70" t="s">
         <v>2056</v>
-      </c>
-      <c r="D70" t="s">
-        <v>2057</v>
       </c>
       <c r="F70" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>24</v>
       </c>
       <c r="B71" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D71" t="s">
         <v>2058</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2059</v>
       </c>
       <c r="F71" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="W71" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D72" t="s">
         <v>2060</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2061</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
       <c r="B73" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D73" t="s">
         <v>2062</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2063</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
       <c r="B74" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D74" t="s">
         <v>2064</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2065</v>
       </c>
       <c r="F74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="W74" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>24</v>
       </c>
       <c r="B75" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D75" t="s">
         <v>2066</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2067</v>
       </c>
       <c r="F75" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>24</v>
       </c>
       <c r="B76" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D76" t="s">
         <v>2068</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2069</v>
       </c>
       <c r="F76" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="W76" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
       <c r="B77" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D77" t="s">
         <v>2070</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2071</v>
       </c>
       <c r="F77" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D78" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F78" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
       <c r="B79" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D79" t="s">
         <v>2073</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2074</v>
       </c>
       <c r="F79" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W79" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
       <c r="B80" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D80" t="s">
         <v>2075</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2076</v>
       </c>
       <c r="F80" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
       <c r="B81" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D81" t="s">
         <v>2077</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2078</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
       <c r="B82" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D82" t="s">
         <v>2079</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2080</v>
       </c>
       <c r="F82" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="W82" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
       <c r="B83" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D83" t="s">
         <v>2081</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2082</v>
       </c>
       <c r="F83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>24</v>
       </c>
       <c r="B84" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D84" t="s">
         <v>2083</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2084</v>
       </c>
       <c r="F84" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W84" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>24</v>
       </c>
       <c r="B85" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D85" t="s">
         <v>2085</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2086</v>
       </c>
       <c r="F85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="W85" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>24</v>
       </c>
       <c r="B86" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D86" t="s">
         <v>2087</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2088</v>
       </c>
       <c r="F86" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="W86" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>24</v>
       </c>
       <c r="B87" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D87" t="s">
         <v>2089</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2090</v>
       </c>
       <c r="F87" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="W87" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D88" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F88" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="W88" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
       <c r="B89" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D89" t="s">
         <v>2092</v>
-      </c>
-      <c r="D89" t="s">
-        <v>2093</v>
       </c>
       <c r="F89" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="W89" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>24</v>
       </c>
       <c r="B90" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D90" t="s">
         <v>2094</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2095</v>
       </c>
       <c r="F90" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="W90" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
       <c r="B91" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D91" t="s">
         <v>2096</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2097</v>
       </c>
       <c r="F91" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="W91" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>24</v>
       </c>
       <c r="B92" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D92" t="s">
         <v>2098</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2099</v>
       </c>
       <c r="F92" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="W92" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>24</v>
       </c>
       <c r="B93" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D93" t="s">
         <v>2100</v>
-      </c>
-      <c r="D93" t="s">
-        <v>2101</v>
       </c>
       <c r="F93" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="W93" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
       <c r="B94" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D94" t="s">
         <v>2102</v>
-      </c>
-      <c r="D94" t="s">
-        <v>2103</v>
       </c>
       <c r="F94" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="W94" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
       <c r="B95" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D95" t="s">
         <v>2104</v>
-      </c>
-      <c r="D95" t="s">
-        <v>2105</v>
       </c>
       <c r="F95" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="W95" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>24</v>
       </c>
       <c r="B96" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D96" t="s">
         <v>2106</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2107</v>
       </c>
       <c r="F96" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="W96" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
       <c r="B97" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D97" t="s">
         <v>2108</v>
-      </c>
-      <c r="D97" t="s">
-        <v>2109</v>
       </c>
       <c r="F97" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="W97" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>24</v>
       </c>
       <c r="B98" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D98" t="s">
         <v>2110</v>
-      </c>
-      <c r="D98" t="s">
-        <v>2111</v>
       </c>
       <c r="F98" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="W98" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
       <c r="B99" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D99" t="s">
         <v>2112</v>
-      </c>
-      <c r="D99" t="s">
-        <v>2113</v>
       </c>
       <c r="F99" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="W99" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
       </c>
       <c r="B100" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D100" t="s">
         <v>2114</v>
-      </c>
-      <c r="D100" t="s">
-        <v>2115</v>
       </c>
       <c r="F100" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="W100" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
       <c r="B101" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D101" t="s">
         <v>2116</v>
       </c>
-      <c r="D101" t="s">
-        <v>2117</v>
-      </c>
       <c r="F101" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="W101" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D102" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F102" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="W102" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D103" t="s">
         <v>2121</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2122</v>
-      </c>
-      <c r="D103" t="s">
-        <v>2123</v>
       </c>
       <c r="F103" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="W103" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B104" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F104" t="s">
         <v>2124</v>
       </c>
-      <c r="D104" t="s">
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="W104" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B105" t="s">
         <v>2125</v>
       </c>
-      <c r="F104" t="s">
+      <c r="D105" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="F105" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="W105" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B106" t="s">
         <v>2127</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>2128</v>
       </c>
-      <c r="F105" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="F106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="W106" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B107" t="s">
         <v>2129</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>2130</v>
       </c>
-      <c r="F106" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="F107" t="s">
+        <v>75</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="W107" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B108" t="s">
         <v>2131</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>2132</v>
       </c>
-      <c r="F107" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="F108" t="s">
+        <v>75</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="W108" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B109" t="s">
         <v>2133</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>2134</v>
       </c>
-      <c r="F108" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="F109" t="s">
+        <v>75</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="W109" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B110" t="s">
         <v>2135</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>2136</v>
       </c>
-      <c r="F109" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="F110" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="W110" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B111" t="s">
         <v>2137</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>2138</v>
       </c>
-      <c r="F110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="F111" t="s">
+        <v>75</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="W111" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B112" t="s">
         <v>2139</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>2140</v>
       </c>
-      <c r="F111" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="F112" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="W112" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B113" t="s">
         <v>2141</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>2142</v>
       </c>
-      <c r="F112" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="F113" t="s">
+        <v>75</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="W113" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B114" t="s">
         <v>2143</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>2144</v>
       </c>
-      <c r="F113" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="F114" t="s">
+        <v>75</v>
+      </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="W114" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B115" t="s">
         <v>2145</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>2146</v>
       </c>
-      <c r="F114" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="F115" t="s">
+        <v>75</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="W115" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B116" t="s">
         <v>2147</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>2148</v>
       </c>
-      <c r="F115" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="F116" t="s">
         <v>2149</v>
       </c>
-      <c r="D116" t="s">
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="W116" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B117" t="s">
         <v>2150</v>
       </c>
-      <c r="F116" t="s">
+      <c r="D117" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="F117" t="s">
+        <v>75</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="W117" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B118" t="s">
         <v>2152</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>2153</v>
       </c>
-      <c r="F117" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="F118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="W118" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B119" t="s">
         <v>2154</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>2155</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="W119" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B120" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="D120" t="s">
         <v>2157</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F120" t="s">
+        <v>75</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="W120" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B121" t="s">
         <v>2158</v>
       </c>
-      <c r="F119" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="D121" t="s">
         <v>2159</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F121" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="W121" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B122" t="s">
         <v>2160</v>
       </c>
-      <c r="F120" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="D122" t="s">
         <v>2161</v>
-      </c>
-      <c r="D121" t="s">
-        <v>2162</v>
-      </c>
-      <c r="F121" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D122" t="s">
-        <v>2164</v>
       </c>
       <c r="F122" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="W122" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B123" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="W123" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D124" t="s">
         <v>2165</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F124" t="s">
+        <v>75</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="W124" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B125" t="s">
         <v>2166</v>
       </c>
-      <c r="F123" t="s">
+      <c r="D125" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="F125" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="W125" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B126" t="s">
         <v>2168</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D126" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F126" t="s">
+        <v>75</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="W126" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B127" t="s">
         <v>2169</v>
       </c>
-      <c r="F124" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="D127" t="s">
         <v>2170</v>
-      </c>
-      <c r="D125" t="s">
-        <v>2171</v>
-      </c>
-      <c r="F125" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D126" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F126" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D127" t="s">
-        <v>2175</v>
       </c>
       <c r="F127" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="W127" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B128" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="D128" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="F128" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="W128" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B129" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="W129" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F130" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="W130" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B131" t="s">
         <v>2178</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D131" t="s">
         <v>2179</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F131" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="W131" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B132" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="D132" t="s">
         <v>2181</v>
-      </c>
-      <c r="D130" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F130" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F131" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D132" t="s">
-        <v>2188</v>
       </c>
       <c r="F132" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W132" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B133" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F133" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="W133" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F134" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W134" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F135" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="W135" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D136" t="s">
         <v>2189</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F136" t="s">
+        <v>27</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="W136" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B137" t="s">
         <v>2190</v>
       </c>
-      <c r="F133" t="s">
+      <c r="D137" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="F137" t="s">
+        <v>27</v>
+      </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="W137" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B138" t="s">
         <v>2192</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D138" t="s">
         <v>2193</v>
       </c>
-      <c r="F134" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="F138" t="s">
+        <v>27</v>
+      </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="W138" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B139" t="s">
         <v>2194</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D139" t="s">
         <v>2195</v>
       </c>
-      <c r="F135" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="F139" t="s">
+        <v>27</v>
+      </c>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="W139" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B140" t="s">
         <v>2196</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D140" t="s">
         <v>2197</v>
       </c>
-      <c r="F136" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="F140" t="s">
+        <v>27</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="W140" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B141" t="s">
         <v>2198</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D141" t="s">
         <v>2199</v>
       </c>
-      <c r="F137" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="F141" t="s">
+        <v>27</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="W141" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B142" t="s">
         <v>2200</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D142" t="s">
         <v>2201</v>
-      </c>
-      <c r="F138" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2202</v>
-      </c>
-      <c r="D139" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F139" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2204</v>
-      </c>
-      <c r="D140" t="s">
-        <v>2205</v>
-      </c>
-      <c r="F140" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2206</v>
-      </c>
-      <c r="D141" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F141" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2208</v>
-      </c>
-      <c r="D142" t="s">
-        <v>2209</v>
       </c>
       <c r="F142" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J142" t="b">
+        <v>1</v>
+      </c>
+      <c r="W142" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B143" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="D143" t="s">
-        <v>2211</v>
+        <v>2203</v>
       </c>
       <c r="F143" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="W143" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B144" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="W144" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
+      <c r="W145" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F146" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J146" t="b">
+        <v>1</v>
+      </c>
+      <c r="W146" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F147" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="W147" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B148" t="s">
         <v>2212</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D148" t="s">
         <v>2213</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F148" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
+      <c r="W148" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B149" t="s">
         <v>2214</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="D149" t="s">
         <v>2215</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2216</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2218</v>
-      </c>
-      <c r="D146" t="s">
-        <v>2219</v>
-      </c>
-      <c r="F146" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2220</v>
-      </c>
-      <c r="D147" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F147" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2222</v>
-      </c>
-      <c r="D148" t="s">
-        <v>2223</v>
-      </c>
-      <c r="F148" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2224</v>
-      </c>
-      <c r="D149" t="s">
-        <v>2225</v>
       </c>
       <c r="F149" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="W149" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B150" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
       <c r="D150" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="F150" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="W150" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B151" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="D151" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="F151" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1914</v>
+      </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
+      <c r="W151" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B152" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="D152" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="F152" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2544</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="W152" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B153" t="s">
-        <v>2233</v>
+        <v>2222</v>
       </c>
       <c r="D153" t="s">
-        <v>2234</v>
+        <v>2223</v>
       </c>
       <c r="F153" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J153" t="b">
+        <v>1</v>
+      </c>
+      <c r="W153" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B154" t="s">
-        <v>2235</v>
+        <v>2224</v>
       </c>
       <c r="D154" t="s">
-        <v>2236</v>
+        <v>2225</v>
       </c>
       <c r="F154" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J154" t="b">
+        <v>1</v>
+      </c>
+      <c r="W154" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B155" t="s">
-        <v>2237</v>
+        <v>2226</v>
       </c>
       <c r="D155" t="s">
-        <v>2238</v>
+        <v>2227</v>
       </c>
       <c r="F155" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J155" t="b">
+        <v>1</v>
+      </c>
+      <c r="W155" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B156" t="s">
-        <v>2240</v>
+        <v>2228</v>
       </c>
       <c r="D156" t="s">
-        <v>2241</v>
+        <v>2229</v>
       </c>
       <c r="F156" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="W156" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B157" t="s">
-        <v>2242</v>
+        <v>2230</v>
       </c>
       <c r="D157" t="s">
-        <v>2243</v>
+        <v>2231</v>
       </c>
       <c r="F157" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="W157" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B158" t="s">
-        <v>2245</v>
+        <v>2232</v>
       </c>
       <c r="D158" t="s">
         <v>1042</v>
       </c>
       <c r="F158" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J158" t="b">
+        <v>1</v>
+      </c>
+      <c r="W158" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B159" t="s">
-        <v>2246</v>
+        <v>2233</v>
       </c>
       <c r="D159" t="s">
-        <v>2247</v>
+        <v>2234</v>
       </c>
       <c r="F159" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J159" t="b">
+        <v>1</v>
+      </c>
+      <c r="W159" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B160" t="s">
-        <v>2249</v>
+        <v>2236</v>
       </c>
       <c r="D160" t="s">
-        <v>2250</v>
+        <v>2237</v>
       </c>
       <c r="F160" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
+      <c r="W160" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B161" t="s">
-        <v>2251</v>
+        <v>2238</v>
       </c>
       <c r="D161" t="s">
-        <v>2252</v>
+        <v>2239</v>
       </c>
       <c r="F161" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
+      <c r="W161" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B162" t="s">
-        <v>2253</v>
+        <v>2240</v>
       </c>
       <c r="D162" t="s">
-        <v>2254</v>
+        <v>2241</v>
       </c>
       <c r="F162" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="W162" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B163" t="s">
-        <v>2255</v>
+        <v>2242</v>
       </c>
       <c r="D163" t="s">
-        <v>2256</v>
+        <v>2243</v>
       </c>
       <c r="F163" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J163" t="b">
+        <v>1</v>
+      </c>
+      <c r="W163" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B164" t="s">
-        <v>2257</v>
+        <v>2244</v>
       </c>
       <c r="D164" t="s">
-        <v>2258</v>
+        <v>2245</v>
       </c>
       <c r="F164" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="W164" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B165" t="s">
-        <v>2259</v>
+        <v>2246</v>
       </c>
       <c r="D165" t="s">
-        <v>2260</v>
+        <v>2247</v>
       </c>
       <c r="F165" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J165" t="b">
+        <v>1</v>
+      </c>
+      <c r="W165" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B166" t="s">
         <v>2248</v>
       </c>
-      <c r="B166" t="s">
-        <v>2261</v>
-      </c>
       <c r="D166" t="s">
-        <v>2262</v>
+        <v>2249</v>
       </c>
       <c r="F166" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J166" t="b">
+        <v>1</v>
+      </c>
+      <c r="W166" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B167" t="s">
-        <v>2263</v>
+        <v>2250</v>
       </c>
       <c r="D167" t="s">
-        <v>2264</v>
+        <v>2251</v>
       </c>
       <c r="F167" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J167" t="b">
+        <v>1</v>
+      </c>
+      <c r="W167" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B168" t="s">
-        <v>2265</v>
+        <v>2252</v>
       </c>
       <c r="D168" t="s">
-        <v>2266</v>
+        <v>2253</v>
       </c>
       <c r="F168" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
+      <c r="W168" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B169" t="s">
-        <v>2267</v>
+        <v>2254</v>
       </c>
       <c r="D169" t="s">
-        <v>2268</v>
+        <v>2255</v>
       </c>
       <c r="F169" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
+      <c r="W169" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B170" t="s">
-        <v>2269</v>
+        <v>2256</v>
       </c>
       <c r="D170" t="s">
-        <v>2270</v>
+        <v>2257</v>
       </c>
       <c r="F170" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J170" t="b">
+        <v>1</v>
+      </c>
+      <c r="W170" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B171" t="s">
-        <v>2271</v>
+        <v>2258</v>
       </c>
       <c r="D171" t="s">
-        <v>2272</v>
+        <v>2259</v>
       </c>
       <c r="F171" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J171" t="b">
+        <v>1</v>
+      </c>
+      <c r="W171" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>2248</v>
+        <v>2235</v>
       </c>
       <c r="B172" t="s">
-        <v>2273</v>
+        <v>2260</v>
       </c>
       <c r="D172" t="s">
-        <v>2274</v>
+        <v>2261</v>
       </c>
       <c r="F172" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
+      <c r="W172" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B173" t="s">
-        <v>2276</v>
+        <v>2263</v>
       </c>
       <c r="D173" t="s">
-        <v>2277</v>
+        <v>2264</v>
       </c>
       <c r="F173" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
+      <c r="W173" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B174" t="s">
-        <v>2278</v>
+        <v>2265</v>
       </c>
       <c r="D174" t="s">
-        <v>2279</v>
+        <v>2266</v>
       </c>
       <c r="F174" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
+      <c r="W174" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B175" t="s">
-        <v>2280</v>
+        <v>2267</v>
       </c>
       <c r="D175" t="s">
-        <v>2281</v>
+        <v>2268</v>
       </c>
       <c r="F175" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="W175" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B176" t="s">
-        <v>2282</v>
+        <v>2269</v>
       </c>
       <c r="D176" t="s">
-        <v>2283</v>
+        <v>2270</v>
       </c>
       <c r="F176" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J176" t="b">
+        <v>1</v>
+      </c>
+      <c r="W176" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B177" t="s">
-        <v>2284</v>
+        <v>2271</v>
       </c>
       <c r="D177" t="s">
-        <v>2285</v>
+        <v>2272</v>
       </c>
       <c r="F177" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J177" t="b">
+        <v>1</v>
+      </c>
+      <c r="W177" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B178" t="s">
-        <v>2286</v>
+        <v>2273</v>
       </c>
       <c r="D178" t="s">
-        <v>2287</v>
+        <v>2274</v>
       </c>
       <c r="F178" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
+      <c r="W178" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B179" t="s">
         <v>2275</v>
       </c>
-      <c r="B179" t="s">
-        <v>2288</v>
-      </c>
       <c r="D179" t="s">
-        <v>2289</v>
+        <v>2276</v>
       </c>
       <c r="F179" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J179" t="b">
+        <v>1</v>
+      </c>
+      <c r="W179" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B180" t="s">
-        <v>2290</v>
+        <v>2277</v>
       </c>
       <c r="D180" t="s">
-        <v>2291</v>
+        <v>2278</v>
       </c>
       <c r="F180" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="W180" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B181" t="s">
-        <v>2292</v>
+        <v>2279</v>
       </c>
       <c r="D181" t="s">
-        <v>2293</v>
+        <v>2280</v>
       </c>
       <c r="F181" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="W181" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B182" t="s">
-        <v>2294</v>
+        <v>2281</v>
       </c>
       <c r="D182" t="s">
-        <v>2295</v>
+        <v>2282</v>
       </c>
       <c r="F182" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J182" t="b">
+        <v>1</v>
+      </c>
+      <c r="W182" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B183" t="s">
-        <v>2296</v>
+        <v>2283</v>
       </c>
       <c r="D183" t="s">
-        <v>2297</v>
+        <v>2284</v>
       </c>
       <c r="F183" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="W183" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B184" t="s">
-        <v>2298</v>
+        <v>2285</v>
       </c>
       <c r="D184" t="s">
-        <v>2299</v>
+        <v>2286</v>
       </c>
       <c r="F184" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="W184" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B185" t="s">
-        <v>2300</v>
+        <v>2287</v>
       </c>
       <c r="D185" t="s">
-        <v>2301</v>
+        <v>2288</v>
       </c>
       <c r="F185" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="W185" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B186" t="s">
-        <v>2302</v>
+        <v>2289</v>
       </c>
       <c r="D186" t="s">
-        <v>2303</v>
+        <v>2290</v>
       </c>
       <c r="F186" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J186" t="b">
+        <v>1</v>
+      </c>
+      <c r="W186" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B187" t="s">
-        <v>2304</v>
+        <v>2291</v>
       </c>
       <c r="D187" t="s">
-        <v>2305</v>
+        <v>2292</v>
       </c>
       <c r="F187" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J187" t="b">
+        <v>1</v>
+      </c>
+      <c r="W187" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B188" t="s">
-        <v>2306</v>
+        <v>2293</v>
       </c>
       <c r="D188" t="s">
-        <v>2307</v>
+        <v>2294</v>
       </c>
       <c r="F188" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J188" t="b">
+        <v>1</v>
+      </c>
+      <c r="W188" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B189" t="s">
-        <v>2308</v>
+        <v>2295</v>
       </c>
       <c r="D189" t="s">
-        <v>2309</v>
+        <v>2296</v>
       </c>
       <c r="F189" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
+      <c r="W189" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B190" t="s">
-        <v>2310</v>
+        <v>2297</v>
       </c>
       <c r="D190" t="s">
-        <v>2311</v>
+        <v>2298</v>
       </c>
       <c r="F190" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
+      <c r="W190" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B191" t="s">
-        <v>2312</v>
+        <v>2299</v>
       </c>
       <c r="D191" t="s">
-        <v>2313</v>
+        <v>2300</v>
       </c>
       <c r="F191" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J191" t="b">
+        <v>1</v>
+      </c>
+      <c r="W191" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B192" t="s">
-        <v>2314</v>
+        <v>2301</v>
       </c>
       <c r="D192" t="s">
-        <v>2315</v>
+        <v>2302</v>
       </c>
       <c r="F192" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J192" t="b">
+        <v>1</v>
+      </c>
+      <c r="W192" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B193" t="s">
-        <v>2316</v>
+        <v>2303</v>
       </c>
       <c r="D193" t="s">
-        <v>2317</v>
+        <v>2304</v>
       </c>
       <c r="F193" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J193" t="b">
+        <v>1</v>
+      </c>
+      <c r="W193" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B194" t="s">
-        <v>2318</v>
+        <v>2305</v>
       </c>
       <c r="D194" t="s">
-        <v>2319</v>
+        <v>2306</v>
       </c>
       <c r="F194" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="W194" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B195" t="s">
-        <v>2320</v>
+        <v>2307</v>
       </c>
       <c r="D195" t="s">
-        <v>2321</v>
+        <v>2308</v>
       </c>
       <c r="F195" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="W195" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B196" t="s">
-        <v>2322</v>
+        <v>2309</v>
       </c>
       <c r="D196" t="s">
-        <v>2323</v>
+        <v>2310</v>
       </c>
       <c r="F196" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
+      <c r="W196" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B197" t="s">
-        <v>2324</v>
+        <v>2311</v>
       </c>
       <c r="D197" t="s">
-        <v>2325</v>
+        <v>2312</v>
       </c>
       <c r="F197" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J197" t="b">
+        <v>1</v>
+      </c>
+      <c r="W197" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>2275</v>
+        <v>2262</v>
       </c>
       <c r="B198" t="s">
-        <v>2326</v>
+        <v>2313</v>
       </c>
       <c r="D198" t="s">
-        <v>2327</v>
+        <v>2314</v>
       </c>
       <c r="F198" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J198" t="b">
+        <v>1</v>
+      </c>
+      <c r="W198" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>388</v>
       </c>
       <c r="B199" t="s">
-        <v>2328</v>
+        <v>2315</v>
       </c>
       <c r="D199" t="s">
-        <v>2329</v>
+        <v>2316</v>
       </c>
       <c r="F199" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="W199" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>388</v>
       </c>
       <c r="B200" t="s">
-        <v>2330</v>
+        <v>2317</v>
       </c>
       <c r="D200" t="s">
-        <v>2331</v>
+        <v>2318</v>
       </c>
       <c r="F200" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J200" t="b">
+        <v>1</v>
+      </c>
+      <c r="W200" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>388</v>
       </c>
       <c r="B201" t="s">
-        <v>2332</v>
+        <v>2319</v>
       </c>
       <c r="D201" t="s">
-        <v>2333</v>
+        <v>2320</v>
       </c>
       <c r="F201" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J201" t="b">
+        <v>1</v>
+      </c>
+      <c r="W201" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>388</v>
       </c>
       <c r="B202" t="s">
-        <v>2334</v>
+        <v>2321</v>
       </c>
       <c r="D202" t="s">
-        <v>2335</v>
+        <v>2322</v>
       </c>
       <c r="F202" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J202" t="b">
+        <v>1</v>
+      </c>
+      <c r="W202" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>388</v>
       </c>
       <c r="B203" t="s">
-        <v>2336</v>
+        <v>2323</v>
       </c>
       <c r="D203" t="s">
-        <v>2337</v>
+        <v>2324</v>
       </c>
       <c r="F203" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J203" t="b">
+        <v>1</v>
+      </c>
+      <c r="W203" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>388</v>
       </c>
       <c r="B204" t="s">
-        <v>2338</v>
+        <v>2325</v>
       </c>
       <c r="D204" t="s">
-        <v>2339</v>
+        <v>2326</v>
       </c>
       <c r="F204" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J204" t="b">
+        <v>1</v>
+      </c>
+      <c r="W204" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>449</v>
       </c>
       <c r="B205" t="s">
-        <v>2340</v>
+        <v>2327</v>
       </c>
       <c r="D205" t="s">
-        <v>2341</v>
+        <v>2328</v>
       </c>
       <c r="F205" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J205" t="b">
+        <v>1</v>
+      </c>
+      <c r="W205" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>449</v>
       </c>
       <c r="B206" t="s">
-        <v>2342</v>
+        <v>2329</v>
       </c>
       <c r="D206" t="s">
-        <v>2343</v>
+        <v>2330</v>
       </c>
       <c r="F206" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J206" t="b">
+        <v>1</v>
+      </c>
+      <c r="W206" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>2344</v>
+        <v>2331</v>
       </c>
       <c r="B207" t="s">
-        <v>2345</v>
+        <v>2332</v>
       </c>
       <c r="D207" t="s">
-        <v>2346</v>
+        <v>2333</v>
       </c>
       <c r="F207" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J207" t="b">
+        <v>1</v>
+      </c>
+      <c r="W207" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>122</v>
       </c>
       <c r="B208" t="s">
-        <v>2347</v>
+        <v>2334</v>
       </c>
       <c r="D208" t="s">
-        <v>2348</v>
+        <v>2335</v>
       </c>
       <c r="F208" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J208" t="b">
+        <v>1</v>
+      </c>
+      <c r="W208" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>122</v>
       </c>
       <c r="B209" t="s">
-        <v>2349</v>
+        <v>2336</v>
       </c>
       <c r="D209" t="s">
-        <v>2350</v>
+        <v>2337</v>
       </c>
       <c r="F209" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J209" t="b">
+        <v>1</v>
+      </c>
+      <c r="W209" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>122</v>
       </c>
       <c r="B210" t="s">
-        <v>2351</v>
+        <v>2338</v>
       </c>
       <c r="D210" t="s">
-        <v>2352</v>
+        <v>2339</v>
       </c>
       <c r="F210" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J210" t="b">
+        <v>1</v>
+      </c>
+      <c r="W210" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>122</v>
       </c>
       <c r="B211" t="s">
-        <v>2353</v>
+        <v>2340</v>
       </c>
       <c r="D211" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="F211" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J211" t="b">
+        <v>1</v>
+      </c>
+      <c r="W211" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B212" t="s">
-        <v>2355</v>
+        <v>2342</v>
       </c>
       <c r="D212" t="s">
-        <v>2356</v>
+        <v>2343</v>
       </c>
       <c r="F212" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J212" t="b">
+        <v>1</v>
+      </c>
+      <c r="W212" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B213" t="s">
-        <v>2357</v>
+        <v>2344</v>
       </c>
       <c r="D213" t="s">
-        <v>2358</v>
+        <v>2345</v>
       </c>
       <c r="F213" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J213" t="b">
+        <v>1</v>
+      </c>
+      <c r="W213" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B214" t="s">
-        <v>2359</v>
+        <v>2346</v>
       </c>
       <c r="D214" t="s">
-        <v>2360</v>
+        <v>2347</v>
       </c>
       <c r="F214" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J214" t="b">
+        <v>1</v>
+      </c>
+      <c r="W214" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B215" t="s">
-        <v>2361</v>
+        <v>2348</v>
       </c>
       <c r="D215" t="s">
-        <v>2362</v>
+        <v>2349</v>
       </c>
       <c r="F215" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J215" t="b">
+        <v>1</v>
+      </c>
+      <c r="W215" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B216" t="s">
-        <v>2363</v>
+        <v>2350</v>
       </c>
       <c r="D216" t="s">
-        <v>2287</v>
+        <v>2274</v>
       </c>
       <c r="F216" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J216" t="b">
+        <v>1</v>
+      </c>
+      <c r="W216" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>2354</v>
+        <v>2341</v>
       </c>
       <c r="B217" t="s">
-        <v>2364</v>
+        <v>2351</v>
       </c>
       <c r="D217" t="s">
-        <v>2365</v>
+        <v>2352</v>
       </c>
       <c r="F217" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J217" t="b">
+        <v>1</v>
+      </c>
+      <c r="W217" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>2366</v>
+        <v>388</v>
       </c>
       <c r="B218" t="s">
-        <v>2367</v>
+        <v>2425</v>
       </c>
       <c r="D218" t="s">
-        <v>1954</v>
+        <v>2487</v>
       </c>
       <c r="F218" t="s">
+        <v>473</v>
+      </c>
+      <c r="J218" t="b">
+        <v>1</v>
+      </c>
+      <c r="W218" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>388</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F219" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>2366</v>
-      </c>
-      <c r="B219" t="s">
-        <v>2368</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F219" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J219" t="b">
+        <v>1</v>
+      </c>
+      <c r="W219" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>2369</v>
+        <v>388</v>
       </c>
       <c r="B220" t="s">
-        <v>2370</v>
+        <v>2427</v>
       </c>
       <c r="D220" t="s">
-        <v>1971</v>
+        <v>2489</v>
       </c>
       <c r="F220" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="J220" t="b">
+        <v>1</v>
+      </c>
+      <c r="W220" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>2369</v>
+        <v>122</v>
       </c>
       <c r="B221" t="s">
-        <v>2371</v>
+        <v>2428</v>
       </c>
       <c r="D221" t="s">
-        <v>1973</v>
+        <v>2490</v>
       </c>
       <c r="F221" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1932</v>
+      </c>
+      <c r="J221" t="b">
+        <v>1</v>
+      </c>
+      <c r="W221" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2369</v>
+        <v>122</v>
       </c>
       <c r="B222" t="s">
-        <v>2372</v>
+        <v>2429</v>
       </c>
       <c r="D222" t="s">
-        <v>1975</v>
+        <v>2491</v>
       </c>
       <c r="F222" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1932</v>
+      </c>
+      <c r="J222" t="b">
+        <v>1</v>
+      </c>
+      <c r="W222" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>2373</v>
+        <v>122</v>
       </c>
       <c r="B223" t="s">
-        <v>2374</v>
+        <v>2430</v>
       </c>
       <c r="D223" t="s">
-        <v>2375</v>
+        <v>2492</v>
       </c>
       <c r="F223" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1932</v>
+      </c>
+      <c r="J223" t="b">
+        <v>1</v>
+      </c>
+      <c r="W223" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>2376</v>
+        <v>1380</v>
       </c>
       <c r="B224" t="s">
-        <v>2377</v>
+        <v>2431</v>
       </c>
       <c r="D224" t="s">
-        <v>2378</v>
+        <v>2493</v>
       </c>
       <c r="F224" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J224" t="b">
+        <v>1</v>
+      </c>
+      <c r="W224" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>2380</v>
+        <v>1380</v>
       </c>
       <c r="B225" t="s">
-        <v>2381</v>
+        <v>2432</v>
       </c>
       <c r="D225" t="s">
-        <v>2382</v>
+        <v>2494</v>
       </c>
       <c r="F225" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J225" t="b">
+        <v>1</v>
+      </c>
+      <c r="W225" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>2380</v>
+        <v>1380</v>
       </c>
       <c r="B226" t="s">
-        <v>2383</v>
+        <v>2433</v>
       </c>
       <c r="D226" t="s">
-        <v>2384</v>
+        <v>2495</v>
       </c>
       <c r="F226" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J226" t="b">
+        <v>1</v>
+      </c>
+      <c r="W226" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2380</v>
+        <v>1380</v>
       </c>
       <c r="B227" t="s">
-        <v>2385</v>
+        <v>2434</v>
       </c>
       <c r="D227" t="s">
-        <v>2386</v>
+        <v>2496</v>
       </c>
       <c r="F227" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J227" t="b">
+        <v>1</v>
+      </c>
+      <c r="W227" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>2387</v>
+        <v>1380</v>
       </c>
       <c r="B228" t="s">
-        <v>2388</v>
+        <v>2435</v>
       </c>
       <c r="D228" t="s">
-        <v>2389</v>
+        <v>2497</v>
       </c>
       <c r="F228" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J228" t="b">
+        <v>1</v>
+      </c>
+      <c r="W228" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>2387</v>
+        <v>1380</v>
       </c>
       <c r="B229" t="s">
-        <v>2390</v>
+        <v>2436</v>
       </c>
       <c r="D229" t="s">
-        <v>2391</v>
+        <v>2498</v>
       </c>
       <c r="F229" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J229" t="b">
+        <v>1</v>
+      </c>
+      <c r="W229" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>2392</v>
+        <v>1380</v>
       </c>
       <c r="B230" t="s">
-        <v>2393</v>
+        <v>2437</v>
       </c>
       <c r="D230" t="s">
-        <v>2394</v>
+        <v>2499</v>
       </c>
       <c r="F230" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J230" t="b">
+        <v>1</v>
+      </c>
+      <c r="W230" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>2396</v>
+        <v>1380</v>
       </c>
       <c r="B231" t="s">
-        <v>2397</v>
+        <v>2438</v>
       </c>
       <c r="D231" t="s">
-        <v>2398</v>
+        <v>2500</v>
       </c>
       <c r="F231" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J231" t="b">
+        <v>1</v>
+      </c>
+      <c r="W231" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>2399</v>
+        <v>1380</v>
       </c>
       <c r="B232" t="s">
-        <v>2400</v>
+        <v>2439</v>
       </c>
       <c r="D232" t="s">
-        <v>2401</v>
+        <v>2501</v>
       </c>
       <c r="F232" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J232" t="b">
+        <v>1</v>
+      </c>
+      <c r="W232" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>2403</v>
+        <v>1380</v>
       </c>
       <c r="B233" t="s">
-        <v>2404</v>
+        <v>2440</v>
       </c>
       <c r="D233" t="s">
-        <v>2405</v>
+        <v>2502</v>
       </c>
       <c r="F233" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J233" t="b">
+        <v>1</v>
+      </c>
+      <c r="W233" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F234" t="s">
+        <v>75</v>
+      </c>
+      <c r="J234" t="b">
+        <v>1</v>
+      </c>
+      <c r="W234" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F235" t="s">
+        <v>75</v>
+      </c>
+      <c r="J235" t="b">
+        <v>1</v>
+      </c>
+      <c r="W235" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>122</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F236" t="s">
+        <v>27</v>
+      </c>
+      <c r="J236" t="b">
+        <v>1</v>
+      </c>
+      <c r="W236" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F237" t="s">
+        <v>422</v>
+      </c>
+      <c r="J237" t="b">
+        <v>1</v>
+      </c>
+      <c r="W237" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F238" t="s">
+        <v>473</v>
+      </c>
+      <c r="J238" t="b">
+        <v>1</v>
+      </c>
+      <c r="W238" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J239" t="b">
+        <v>1</v>
+      </c>
+      <c r="W239" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F240" t="s">
+        <v>422</v>
+      </c>
+      <c r="J240" t="b">
+        <v>1</v>
+      </c>
+      <c r="W240" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>388</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F241" t="s">
+        <v>179</v>
+      </c>
+      <c r="J241" t="b">
+        <v>1</v>
+      </c>
+      <c r="W241" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>470</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F242" t="s">
+        <v>179</v>
+      </c>
+      <c r="J242" t="b">
+        <v>1</v>
+      </c>
+      <c r="W242" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F243" t="s">
+        <v>27</v>
+      </c>
+      <c r="J243" t="b">
+        <v>1</v>
+      </c>
+      <c r="W243" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F244" t="s">
+        <v>422</v>
+      </c>
+      <c r="J244" t="b">
+        <v>1</v>
+      </c>
+      <c r="W244" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F245" t="s">
+        <v>27</v>
+      </c>
+      <c r="J245" t="b">
+        <v>1</v>
+      </c>
+      <c r="W245" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F246" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J246" t="b">
+        <v>1</v>
+      </c>
+      <c r="W246" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F247" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J247" t="b">
+        <v>1</v>
+      </c>
+      <c r="W247" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F248" t="s">
+        <v>71</v>
+      </c>
+      <c r="J248" t="b">
+        <v>1</v>
+      </c>
+      <c r="W248" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F249" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J249" t="b">
+        <v>1</v>
+      </c>
+      <c r="W249" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F250" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J250" t="b">
+        <v>1</v>
+      </c>
+      <c r="W250" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F251" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J251" t="b">
+        <v>1</v>
+      </c>
+      <c r="W251" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F252" t="s">
+        <v>397</v>
+      </c>
+      <c r="J252" t="b">
+        <v>1</v>
+      </c>
+      <c r="W252" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F253" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J253" t="b">
+        <v>1</v>
+      </c>
+      <c r="W253" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J254" t="b">
+        <v>1</v>
+      </c>
+      <c r="W254" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F255" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J255" t="b">
+        <v>1</v>
+      </c>
+      <c r="W255" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F256" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J256" t="b">
+        <v>1</v>
+      </c>
+      <c r="W256" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2526</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J257" t="b">
+        <v>1</v>
+      </c>
+      <c r="W257" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J258" t="b">
+        <v>1</v>
+      </c>
+      <c r="W258" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J259" t="b">
+        <v>1</v>
+      </c>
+      <c r="W259" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F260" t="s">
+        <v>27</v>
+      </c>
+      <c r="J260" t="b">
+        <v>1</v>
+      </c>
+      <c r="W260" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F261" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J261" t="b">
+        <v>1</v>
+      </c>
+      <c r="W261" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F262" t="s">
+        <v>27</v>
+      </c>
+      <c r="J262" t="b">
+        <v>1</v>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="W262" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F263" t="s">
+        <v>87</v>
+      </c>
+      <c r="J263" t="b">
+        <v>1</v>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="W263" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F264" t="s">
+        <v>92</v>
+      </c>
+      <c r="J264" t="b">
+        <v>1</v>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="W264" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F265" t="s">
+        <v>87</v>
+      </c>
+      <c r="J265" t="b">
+        <v>1</v>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="W265" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F266" t="s">
+        <v>87</v>
+      </c>
+      <c r="J266" t="b">
+        <v>1</v>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="W266" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J267" t="b">
+        <v>1</v>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="W267" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F268" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J268" t="b">
+        <v>1</v>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="W268" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F269" t="s">
+        <v>87</v>
+      </c>
+      <c r="J269" t="b">
+        <v>1</v>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="W269" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F270" t="s">
+        <v>87</v>
+      </c>
+      <c r="J270" t="b">
+        <v>1</v>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="W270" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J271" t="b">
+        <v>1</v>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="W271" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F272" t="s">
+        <v>71</v>
+      </c>
+      <c r="J272" t="b">
+        <v>1</v>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="W272" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F273" t="s">
+        <v>71</v>
+      </c>
+      <c r="J273" t="b">
+        <v>1</v>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="W273" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F274" t="s">
+        <v>71</v>
+      </c>
+      <c r="J274" t="b">
+        <v>1</v>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="W274" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F275" t="s">
+        <v>71</v>
+      </c>
+      <c r="J275" t="b">
+        <v>1</v>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="W275" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F276" t="s">
+        <v>71</v>
+      </c>
+      <c r="J276" t="b">
+        <v>1</v>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="W276" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F277" t="s">
+        <v>71</v>
+      </c>
+      <c r="J277" t="b">
+        <v>1</v>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="W277" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F278" t="s">
+        <v>71</v>
+      </c>
+      <c r="J278" t="b">
+        <v>1</v>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="W278" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F279" t="s">
+        <v>71</v>
+      </c>
+      <c r="J279" t="b">
+        <v>1</v>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="W279" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F280" t="s">
+        <v>71</v>
+      </c>
+      <c r="J280" t="b">
+        <v>1</v>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="W280" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F281" t="s">
+        <v>71</v>
+      </c>
+      <c r="J281" t="b">
+        <v>1</v>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="W281" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F282" t="s">
+        <v>71</v>
+      </c>
+      <c r="J282" t="b">
+        <v>1</v>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="W282" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F283" t="s">
+        <v>71</v>
+      </c>
+      <c r="J283" t="b">
+        <v>1</v>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="W283" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F284" t="s">
+        <v>71</v>
+      </c>
+      <c r="J284" t="b">
+        <v>1</v>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="W284" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F285" t="s">
+        <v>27</v>
+      </c>
+      <c r="J285" t="b">
+        <v>1</v>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="W285" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F286" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J286" t="b">
+        <v>1</v>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="W286" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F287" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J287" t="b">
+        <v>1</v>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="W287" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F288" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J288" t="b">
+        <v>1</v>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="W288" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F289" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J289" t="b">
+        <v>1</v>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+      <c r="W289" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F290" t="s">
+        <v>27</v>
+      </c>
+      <c r="J290" t="b">
+        <v>1</v>
+      </c>
+      <c r="K290" t="b">
+        <v>1</v>
+      </c>
+      <c r="W290" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J291" t="b">
+        <v>1</v>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="W291" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J292" t="b">
+        <v>1</v>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="W292" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F293" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J293" t="b">
+        <v>1</v>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="W293" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F294" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J294" t="b">
+        <v>1</v>
+      </c>
+      <c r="K294" t="b">
+        <v>1</v>
+      </c>
+      <c r="W294" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J295" t="b">
+        <v>1</v>
+      </c>
+      <c r="K295" t="b">
+        <v>1</v>
+      </c>
+      <c r="W295" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F296" t="s">
+        <v>27</v>
+      </c>
+      <c r="J296" t="b">
+        <v>1</v>
+      </c>
+      <c r="K296" t="b">
+        <v>1</v>
+      </c>
+      <c r="W296" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J297" t="b">
+        <v>1</v>
+      </c>
+      <c r="K297" t="b">
+        <v>1</v>
+      </c>
+      <c r="W297" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J298" t="b">
+        <v>1</v>
+      </c>
+      <c r="K298" t="b">
+        <v>1</v>
+      </c>
+      <c r="W298" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B299" t="s">
         <v>2406</v>
       </c>
-      <c r="B234" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="D299" t="s">
         <v>2407</v>
       </c>
-      <c r="F234" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="F299" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J299" t="b">
+        <v>1</v>
+      </c>
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="W299" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B300" t="s">
         <v>2408</v>
       </c>
-      <c r="B235" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D235" t="s">
-        <v>2407</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="D300" t="s">
         <v>2409</v>
       </c>
-      <c r="B236" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="F300" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J300" t="b">
+        <v>1</v>
+      </c>
+      <c r="K300" t="b">
+        <v>1</v>
+      </c>
+      <c r="W300" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B301" t="s">
         <v>2410</v>
       </c>
-      <c r="F236" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="D301" t="s">
         <v>2411</v>
       </c>
-      <c r="F237" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="F301" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J301" t="b">
+        <v>1</v>
+      </c>
+      <c r="K301" t="b">
+        <v>1</v>
+      </c>
+      <c r="W301" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B302" t="s">
         <v>2412</v>
       </c>
-      <c r="B238" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="D302" t="s">
         <v>2413</v>
       </c>
-      <c r="F238" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="F302" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J302" t="b">
+        <v>1</v>
+      </c>
+      <c r="W302" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>2414</v>
       </c>
-      <c r="D239" t="s">
+      <c r="B303" t="s">
         <v>2415</v>
       </c>
-      <c r="F239" t="s">
+      <c r="D303" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F303" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B240" t="s">
-        <v>2416</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="J303" t="b">
+        <v>1</v>
+      </c>
+      <c r="W303" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B304" t="s">
         <v>2417</v>
       </c>
-      <c r="F240" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="D304" t="s">
         <v>2418</v>
       </c>
-      <c r="D241" t="s">
+      <c r="F304" t="s">
+        <v>27</v>
+      </c>
+      <c r="J304" t="b">
+        <v>1</v>
+      </c>
+      <c r="W304" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B305" t="s">
         <v>2419</v>
       </c>
-      <c r="F241" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B242" t="s">
+      <c r="D305" t="s">
         <v>2420</v>
       </c>
-      <c r="D242" t="s">
+      <c r="F305" t="s">
+        <v>27</v>
+      </c>
+      <c r="J305" t="b">
+        <v>1</v>
+      </c>
+      <c r="W305" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B306" t="s">
         <v>2421</v>
       </c>
-      <c r="F242" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B243" t="s">
+      <c r="D306" t="s">
         <v>2422</v>
       </c>
-      <c r="D243" t="s">
+      <c r="F306" t="s">
+        <v>75</v>
+      </c>
+      <c r="J306" t="b">
+        <v>1</v>
+      </c>
+      <c r="W306" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B307" t="s">
         <v>2423</v>
       </c>
-      <c r="F243" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B244" t="s">
+      <c r="D307" t="s">
         <v>2424</v>
       </c>
-      <c r="D244" t="s">
-        <v>2425</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B245" t="s">
-        <v>2426</v>
-      </c>
-      <c r="D245" t="s">
-        <v>2427</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B246" t="s">
-        <v>2429</v>
-      </c>
-      <c r="D246" t="s">
-        <v>2430</v>
-      </c>
-      <c r="F246" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B247" t="s">
-        <v>2431</v>
-      </c>
-      <c r="D247" t="s">
-        <v>2432</v>
-      </c>
-      <c r="F247" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B248" t="s">
-        <v>2433</v>
-      </c>
-      <c r="D248" t="s">
-        <v>2434</v>
-      </c>
-      <c r="F248" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B249" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D249" t="s">
-        <v>2436</v>
-      </c>
-      <c r="F249" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B250" t="s">
-        <v>2437</v>
-      </c>
-      <c r="D250" t="s">
-        <v>2438</v>
-      </c>
-      <c r="F250" t="s">
-        <v>2151</v>
+      <c r="F307" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J307" t="b">
+        <v>1</v>
+      </c>
+      <c r="W307" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W308" s="24">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X308"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
